--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2794224.183822672</v>
+        <v>2863340.691647954</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104212</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4691730.468283673</v>
+        <v>4742170.803150068</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>325.5800738246913</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>198.3533024848597</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>147.4696104123381</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.8131656940967</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>46.19026444475082</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>72.72247486492752</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,22 +1054,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>50.60586326124515</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>166.8316574011774</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>332.4291174559665</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>301.8133921900198</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>114.8528499950181</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>130.2423909504993</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>26.70160847752138</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>415.5025679568635</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>29.18607610565402</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>161.7153088076668</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>251.4097481355532</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.76594660771053</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>126.4702673604315</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,7 +2722,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513874</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225694</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3038,7 +3038,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3047,7 +3047,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791330696</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225612</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>246.3956572764331</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>30.80549757377439</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633425</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>133.3709995376071</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>48.89475554195935</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>164.6588743470299</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>90.30617524481254</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>239.8348989057251</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>14.84910096037347</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>61.2328428747578</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>5.452495992857356</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>1238.583055383276</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.659365270951</v>
+        <v>1204.480986607104</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.790603831868</v>
+        <v>775.899312344372</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1461.199093024608</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1260.84222182778</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,34 +4395,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>796.3926008656205</v>
+        <v>665.39009218466</v>
       </c>
       <c r="C4" t="n">
-        <v>623.8308893488454</v>
+        <v>665.39009218466</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9528965503681</v>
+        <v>499.5120993861827</v>
       </c>
       <c r="E4" t="n">
-        <v>288.1948928011053</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4516,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1172.870982911978</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W4" t="n">
-        <v>1172.870982911978</v>
+        <v>1138.201517537139</v>
       </c>
       <c r="X4" t="n">
-        <v>1172.870982911978</v>
+        <v>892.8097628705518</v>
       </c>
       <c r="Y4" t="n">
-        <v>988.2112195846075</v>
+        <v>665.39009218466</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>571.7798232520863</v>
       </c>
       <c r="C5" t="n">
-        <v>1226.179759784392</v>
+        <v>537.6777544759137</v>
       </c>
       <c r="D5" t="n">
-        <v>797.5980855216599</v>
+        <v>505.8083736907623</v>
       </c>
       <c r="E5" t="n">
-        <v>750.9412527491843</v>
+        <v>476.0740328894615</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>452.2470073390733</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.84917596233715</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233715</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>674.533170634257</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>674.533170634257</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762206</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720801</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2448.162284155749</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2188.939981472766</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1826.323031406593</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1421.467576817626</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1002.325113396937</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>998.0793937369941</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326468</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>431.6596472970909</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.7206514241503</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>120.5233537662982</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>540.5762527112014</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609525</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="U7" t="n">
-        <v>1397.332608038895</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>1110.377099909325</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>838.3506954956167</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>592.9589408290292</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.5392701431375</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>1267.502422415565</v>
       </c>
       <c r="C8" t="n">
-        <v>822.1393557439874</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>393.5576814812557</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1294.007308520012</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1289.761588860069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>847.3485218817324</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>681.4705290832551</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>511.7125253339923</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>335.0054712957485</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>169.4141963215762</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>1211.728852117495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.897252701281</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.754779884704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.844995059148</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.070250217444</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2028206266514</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8049892499153</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>96.67483469313152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.67483469313152</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K11" t="n">
-        <v>96.67483469313152</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L11" t="n">
-        <v>96.67483469313152</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M11" t="n">
-        <v>1253.722669903682</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>2379.453653340129</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3359.633319910436</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4187.943194743832</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4734.441980702426</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656575</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4750.089860840412</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4530.022633713451</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4270.800331030468</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3908.183380964294</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.625410307224</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.482946886535</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.196823186188</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.67483469313152</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>96.67483469313152</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>96.67483469313152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>96.67483469313152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>96.67483469313152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>96.67483469313152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>282.279712966327</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1030.142605482704</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.171283788238</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>837.2932909897606</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5352872404978</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>490.828233202254</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2369582280817</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3347839184562</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.916623301303</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.675254599299</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.795808177755</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.36280743086</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.407299301291</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.380894887583</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X13" t="n">
-        <v>1449.380894887583</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y13" t="n">
-        <v>1221.961224201691</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2508.822071452367</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2070.679598635791</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1634.769813810235</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.070250217444</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2028206266514</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8049892499153</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>96.67483469313152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>195.9745886472803</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M14" t="n">
-        <v>1353.022423857831</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>2478.753407294278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3458.933073864584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4287.242948697981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4833.741734656575</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656575</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4750.089860840412</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4530.022633713451</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4530.022633713451</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4167.405683647277</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3762.550229058311</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3343.407765637622</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2935.121641937275</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.67483469313152</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>96.67483469313152</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>96.67483469313152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>96.67483469313152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>96.67483469313152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>96.67483469313152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>282.279712966327</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>943.9922195181193</v>
+        <v>875.8255515988632</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5113345629132</v>
+        <v>703.2638400820881</v>
       </c>
       <c r="D16" t="n">
-        <v>748.633341764436</v>
+        <v>537.3858472836108</v>
       </c>
       <c r="E16" t="n">
-        <v>578.8753380151732</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F16" t="n">
-        <v>402.1682839769293</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G16" t="n">
-        <v>236.577009002757</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>96.67483469313152</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.916623301303</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S16" t="n">
-        <v>2691.916623301303</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.037176879758</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U16" t="n">
-        <v>2167.604176132863</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V16" t="n">
-        <v>1880.648668003294</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.622263589586</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.230508922998</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.810838237107</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.395033719319</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.252560902743</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.342776077187</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.568031235482</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.70060164469</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.3027702679539</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.17261571117012</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571117012</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>99.17261571117012</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>99.17261571117012</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>151.7095747961565</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>1308.757410006707</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2434.488393443154</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3414.66806001346</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4242.977934846856</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4789.476720805451</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558506</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4874.978911742343</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4654.911684615382</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4395.689381932399</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4033.072431866225</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3779.123191325263</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.980727904574</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.694604204227</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.344360702463</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.8878995391052</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.7976106856585</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6771960126122</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.2933576287738</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949576</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571117012</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>99.17261571117012</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>99.17261571117012</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>99.17261571117012</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>99.17261571117012</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>99.17261571117012</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>99.17261571117012</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>284.7774939843654</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.239599095639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968964</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030931</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764125</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030053</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822261</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1178.230776323051</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.669064806277</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>839.7910720077992</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>670.0330682585364</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>493.3260142202926</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>327.7347392461203</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.8325649364948</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571117012</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.75230087586</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469956</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.20450439587</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553514</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779296</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749638</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2694.414404319342</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2535.173035617339</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2289.293589195794</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.860588448899</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.90508031933</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1451.878675905621</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1451.878675905621</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1224.459005219729</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1003.57329640738</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>831.0115848906048</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>665.1335920921275</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>495.3755883428648</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>318.6685343046209</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050032</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093272</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.57329640738</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L23" t="n">
         <v>306.120802776629</v>
@@ -6032,7 +6032,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>286.091284287636</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6157,7 +6157,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883951</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.19296617162</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731427</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.55696962388</v>
       </c>
       <c r="F28" t="n">
         <v>267.852115244952</v>
@@ -6403,31 +6403,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6464,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
         <v>306.120802776629</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771612</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004251</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436414</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,46 +6704,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>306.1208027766299</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561827</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092982</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>791.82765887505</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711739</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>299.7413736002001</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1456.789208810751</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.133251687251</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.7381299604466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>840.9544789438852</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C37" t="n">
-        <v>840.9544789438852</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D37" t="n">
-        <v>675.4932755182679</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E37" t="n">
-        <v>506.152061141865</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F37" t="n">
-        <v>329.8617964764812</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>329.8617964764812</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>190.3764115397157</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.060823704771</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2563.236244375628</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2317.773587326944</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2039.757375952909</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1753.218657196199</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1504.334154896771</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1259.359189603044</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1032.356308290012</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750508</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>299.7413736002001</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1456.789208810751</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.133251687251</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.7381299604466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1178.273886689113</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C40" t="n">
-        <v>1006.128964545198</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="D40" t="n">
-        <v>840.6677611195803</v>
+        <v>837.6953036089013</v>
       </c>
       <c r="E40" t="n">
-        <v>671.3265467431775</v>
+        <v>667.9372998596386</v>
       </c>
       <c r="F40" t="n">
-        <v>495.0362820777937</v>
+        <v>491.2302458213949</v>
       </c>
       <c r="G40" t="n">
-        <v>329.8617964764812</v>
+        <v>325.6389708472225</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3764115397157</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2701.059791783003</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2651.671149821428</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2406.208492772743</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2128.192281398708</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1841.653562641999</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1841.653562641999</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1596.678597348272</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1369.67571603524</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2400.965882556308</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1963.240199112592</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1527.747203659896</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1094.389248191051</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>666.9386079731189</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>265.9575659692426</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>99.6354706692124</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>99.6354706692124</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>99.6354706692124</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>99.6354706692124</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>174.8523226982685</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1331.900157908819</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2457.631141345266</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3437.810807915573</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4266.120682748969</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4812.619468707563</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.77353346062</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4898.538449017316</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.888011263215</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.082497953092</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4057.882337259779</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3653.443672043672</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3234.717997995843</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2826.848663668356</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605052</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.3507544971475</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>404.2604656437007</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1400509706544</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>226.756212586816</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228529999</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.6354706692124</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>99.6354706692124</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>99.6354706692124</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>99.6354706692124</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>99.6354706692124</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>99.6354706692124</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>99.6354706692124</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>285.2403489424077</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1645.702454053682</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148021</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596404</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927006</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926974</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988974</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722168</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.5968959610476</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.1111167402684</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1010.314902245457</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>838.1699801015416</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>838.1699801015416</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E43" t="n">
-        <v>668.8287657251387</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F43" t="n">
-        <v>492.5385010597549</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="G43" t="n">
-        <v>327.3640154584425</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>187.8786305216771</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>99.6354706692124</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982424</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337181</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660192</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411272</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833257</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323378</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.96177255806</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686732</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2719.563042686732</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2719.563042686732</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2474.100385638048</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2231.842911995901</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1945.304193239191</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1673.694578198343</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1428.719612904616</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1201.716731591584</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2246.554654575835</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1808.828971132118</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1373.335975679423</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>939.9780202105781</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>512.5273799926456</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>111.5463379887681</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>96.54724610960294</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>96.54724610960294</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1253.595081320154</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2379.326064756601</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3283.399579935099</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4111.709454768496</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4658.20824072709</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480146</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4744.127221036843</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4524.476783282742</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4265.671269972619</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>3903.471109279305</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3499.032444063198</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3080.306770015369</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2672.437435687882</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008958</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840913</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.051826411045</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272066</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933905</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.54724610960294</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>96.54724610960294</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>96.54724610960294</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>96.54724610960294</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>96.54724610960294</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>96.54724610960294</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>282.1521243827982</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014382</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806589</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.4669080321912</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C46" t="n">
-        <v>778.3219858882761</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D46" t="n">
-        <v>612.8607824626588</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>443.5195680862561</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>267.2293034208723</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.0548178195599</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>96.54724610960294</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386329</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741086</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064098</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273648</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998452</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127124</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.473786205356</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.473786205356</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2450.011129156671</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2171.994917782637</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1885.456199025927</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.846583985079</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.871618691351</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.868737378319</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,13 +7988,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>409.401749030468</v>
+        <v>298.4303698644311</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335046</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>385.0780411188018</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>223.4729892007681</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>291.5292041581947</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,25 +8453,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>100.3027817718676</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>100.3027817718675</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>53.06763543938013</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10352,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>199.6041635484335</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>199.6041635484335</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>75.97661821116775</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11309,7 +11309,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>913.2055708873722</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>270.5645090925777</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.1344859240859</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>13.93442943642426</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>141.6500182959533</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>63.43016517136596</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>149.3971519075238</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.1344859240867</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>37.46509486399911</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>44.28436272291287</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139.5921776627226</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627264</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627272</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25321,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>22.49786161400687</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>212.1323395461435</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.132153028922147</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>108.3415779938926</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>121.1673571850546</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73.62918697961807</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>35.40115035456918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>270.977130571711</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>102.9863699957347</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>132.6380350945405</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>391598.0485214793</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>391598.0485214793</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399072.8627862253</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>408497.600113018</v>
+        <v>408314.6277064481</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>408497.600113018</v>
+        <v>408314.6277064481</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>401022.7858482719</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>391781.0209280491</v>
+        <v>408314.627706448</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26314,28 @@
         <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="D2" t="n">
         <v>522743.6368931483</v>
       </c>
       <c r="E2" t="n">
-        <v>492655.609430248</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="F2" t="n">
-        <v>492655.6094302482</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="G2" t="n">
-        <v>502059.4080213801</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="H2" t="n">
-        <v>513686.1445339183</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="I2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="J2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339186</v>
       </c>
       <c r="K2" t="n">
         <v>513686.1445339185</v>
@@ -26344,16 +26344,16 @@
         <v>513686.1445339185</v>
       </c>
       <c r="M2" t="n">
-        <v>513916.3356260546</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="N2" t="n">
-        <v>513916.3356260546</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="O2" t="n">
-        <v>504512.5370349227</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="P2" t="n">
-        <v>492885.8005223841</v>
+        <v>513686.1445339185</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501646</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998249</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.826365935</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.553879113986</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254591</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877275</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622083</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995836</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121997.5637970937</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.320790547665</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="F4" t="n">
-        <v>773.320790547665</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
-        <v>788.0819194609344</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
@@ -26439,25 +26439,25 @@
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826539</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907825205</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>1222.551252183134</v>
+        <v>806.3323907826536</v>
       </c>
       <c r="N4" t="n">
-        <v>1222.551252183134</v>
+        <v>806.3323907826285</v>
       </c>
       <c r="O4" t="n">
-        <v>1207.790123269864</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>1189.539651948196</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800263</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677994</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677994</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.1879404893</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373052</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842733</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151959.4548264563</v>
+        <v>151959.4548264562</v>
       </c>
       <c r="C6" t="n">
-        <v>294150.7554861661</v>
+        <v>262202.0913930355</v>
       </c>
       <c r="D6" t="n">
-        <v>294150.7554861662</v>
+        <v>323499.1105631575</v>
       </c>
       <c r="E6" t="n">
-        <v>184282.5879069854</v>
+        <v>252783.2399769109</v>
       </c>
       <c r="F6" t="n">
-        <v>418409.4142729206</v>
+        <v>435138.3491979607</v>
       </c>
       <c r="G6" t="n">
-        <v>417342.5842823159</v>
+        <v>435138.3491979607</v>
       </c>
       <c r="H6" t="n">
-        <v>424746.1887847973</v>
+        <v>435138.3491979607</v>
       </c>
       <c r="I6" t="n">
-        <v>435161.5735373434</v>
+        <v>435138.3491979607</v>
       </c>
       <c r="J6" t="n">
-        <v>324147.1081923532</v>
+        <v>324123.8838529706</v>
       </c>
       <c r="K6" t="n">
-        <v>435161.5735373434</v>
+        <v>382092.494559188</v>
       </c>
       <c r="L6" t="n">
-        <v>435161.5735373435</v>
+        <v>425746.0474713387</v>
       </c>
       <c r="M6" t="n">
-        <v>239694.453116848</v>
+        <v>282938.1782599731</v>
       </c>
       <c r="N6" t="n">
-        <v>435037.8244164316</v>
+        <v>435138.3491979606</v>
       </c>
       <c r="O6" t="n">
-        <v>427547.1005279223</v>
+        <v>435138.3491979606</v>
       </c>
       <c r="P6" t="n">
-        <v>418285.6651520086</v>
+        <v>435138.3491979607</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.657696389627</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365155</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370037</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791314619</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483601</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939248</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440394</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272548292</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699511841</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483601</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939248</v>
       </c>
       <c r="M4" t="n">
-        <v>782.544718849932</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483601</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939248</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440394</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272548292</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699511841</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,22 +27382,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>105.9706131526086</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>205.8499599784834</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>20.59081329943203</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.33230828493606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>383.2467329485369</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>145.1440799907642</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>120.2302311403622</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27828,7 +27828,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.8170133382484</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>97.00787993732121</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>113.1376465964626</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>23.65030257151109</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>5.785973998768142e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34772,7 +34772,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>409.401749030468</v>
+        <v>298.4303698644311</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335046</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,19 +35024,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>385.0780411188018</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>223.4729892007681</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>291.5292041581947</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>100.3027817718676</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,7 +35571,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>100.3027817718675</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165079</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>53.06763543938013</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697531</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.908332551295</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36771,7 +36771,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37072,10 +37072,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>199.6041635484335</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>199.6041635484335</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821199</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747316</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>75.97661821116775</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821209</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38029,7 +38029,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>913.2055708873722</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,13 +38108,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821209</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.846845487173</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
